--- a/biology/Médecine/Fosse_cubitale/Fosse_cubitale.xlsx
+++ b/biology/Médecine/Fosse_cubitale/Fosse_cubitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse ulnaire (fosse cubitale en ancienne nomenclature ou plus communément pli du coude) est la zone triangulaire située sur la face antérieure du membre supérieur entre le bras et l'avant-bras à l'avant du coude.
 </t>
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La fosse cubitale est limité :
 en haut par la ligne horizontale reliant l'épicondyle médial de l'humérus à l'épicondyle latéral de l'humérus,
@@ -547,7 +561,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse cubitale contient quatre structures orientées verticalement du bord latéral au bord médial :
 le nerf radial entre les muscles brachio-radial et brachial,
@@ -583,7 +599,9 @@
           <t>Aspects cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres surfaces de flexion des grosses articulations, c'est une zone où les vaisseaux sanguins et les nerfs passent relativement superficiellement, qui loge des ganglions lymphatiques.
 Lors des mesures de pression artérielle, le stéthoscope est placé sur l'artère brachiale dans la fosse cubitale où le pouls brachial peut être palpé juste en dedans du tendon.
